--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE007E-15B4-499F-9D4E-B9FF900EABAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3263AD-403D-4BE8-9C18-82620518F6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>NGC-3477/T1859/T1861</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653/T2654/T2655</t>
   </si>
 </sst>
 </file>
@@ -528,7 +535,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC148114-CD16-42DD-85E6-6FE20047C763}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -897,4 +904,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64ED77-30BE-4E7D-9A74-184DE287C4BE}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3263AD-403D-4BE8-9C18-82620518F6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA24DB-9DA6-4212-854C-5EE6E3B940F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653/T2654/T2655</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459/T-2460/T2461</t>
   </si>
 </sst>
 </file>
@@ -535,7 +542,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64ED77-30BE-4E7D-9A74-184DE287C4BE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1031,4 +1038,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2E072-75B9-4F1D-8808-B4E3108E03A5}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA24DB-9DA6-4212-854C-5EE6E3B940F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA1AD2-FB06-44CB-9385-D12FE80DA0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,9 @@
   </si>
   <si>
     <t>NGC-3479/T2459/T-2460/T2461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3236/T3235/T3234/T3237  </t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2E072-75B9-4F1D-8808-B4E3108E03A5}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,4 +1169,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BB0D97-1825-45A0-83D6-53E1059B83F3}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA1AD2-FB06-44CB-9385-D12FE80DA0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB43C8FC-B71D-4F0E-AB52-62067AA84D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-2930/T3236/T3235/T3234/T3237  </t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453/T2452/T2455</t>
   </si>
 </sst>
 </file>
@@ -546,7 +553,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BB0D97-1825-45A0-83D6-53E1059B83F3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,4 +1298,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059EB39-D8DA-4AB6-975A-D37415ADA2E8}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB43C8FC-B71D-4F0E-AB52-62067AA84D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53EB38-5E9F-4CDF-8F58-138906BDA4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453/T2452/T2455</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2062/</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059EB39-D8DA-4AB6-975A-D37415ADA2E8}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1425,4 +1432,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51071F4-298A-4D5F-925D-A364AB51E45F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53EB38-5E9F-4CDF-8F58-138906BDA4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5777F3A-9FBF-4AB1-8A2A-914D523869B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2062/</t>
+  </si>
+  <si>
+    <t>NGC-3193/T2486/T2485/T2487</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -563,15 +570,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -579,7 +586,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +598,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,61 +620,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -690,15 +697,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -706,7 +713,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,7 +725,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -740,56 +747,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -812,15 +819,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -828,7 +835,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -840,7 +847,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,61 +869,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -939,15 +946,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -955,7 +962,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -967,7 +974,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -977,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,61 +996,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1066,15 +1073,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1089,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1101,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1116,61 +1123,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1193,15 +1200,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1216,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1228,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1243,56 +1250,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1315,15 +1322,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1338,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1350,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1365,61 +1372,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1438,18 +1445,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51071F4-298A-4D5F-925D-A364AB51E45F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1464,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1476,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1491,57 +1498,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842858C4-3024-4EC7-B9B1-1F6C394BD0D0}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5777F3A-9FBF-4AB1-8A2A-914D523869B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E13BD53-6A02-40C2-A74C-D8EC804D5F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
+    <sheet name="Greece" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3187/T3189</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -570,15 +577,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -586,7 +593,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +605,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,61 +627,188 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFB018B-66B2-4B54-A9F9-E654D274ACEA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -697,15 +831,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -713,7 +847,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,7 +859,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,56 +881,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -819,15 +953,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -835,7 +969,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -847,7 +981,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,61 +1003,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -946,15 +1080,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -962,7 +1096,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -974,7 +1108,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,61 +1130,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1073,15 +1207,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1223,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1235,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1123,61 +1257,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1200,15 +1334,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1350,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1362,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,56 +1384,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1322,15 +1456,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1472,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1484,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1372,61 +1506,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1449,14 +1583,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1598,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1610,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1498,56 +1632,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1566,19 +1700,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842858C4-3024-4EC7-B9B1-1F6C394BD0D0}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1720,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1732,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1620,61 +1754,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E13BD53-6A02-40C2-A74C-D8EC804D5F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4B22D-C1A5-40A8-8FBE-B19B0E9B7CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
     <sheet name="Greece" sheetId="20" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
+    <sheet name="Austria" sheetId="22" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -150,6 +153,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -700,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFB018B-66B2-4B54-A9F9-E654D274ACEA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -809,6 +830,387 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306760C9-B1B4-4546-9922-A18CBAC947EA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF2167-D6BD-4C7D-9231-D8D650B6161E}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B545718-4866-4764-B812-A30B5F80DF33}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4B22D-C1A5-40A8-8FBE-B19B0E9B7CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D764839-14E3-4071-B65A-76C1615E220D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
     <sheet name="Austria" sheetId="22" r:id="rId12"/>
     <sheet name="Denmark" sheetId="23" r:id="rId13"/>
+    <sheet name="Russia" sheetId="25" r:id="rId14"/>
+    <sheet name="Finland" sheetId="26" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -171,6 +174,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2912</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2889</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3007</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -848,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306760C9-B1B4-4546-9922-A18CBAC947EA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1225,6 +1246,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69254BB0-2B6B-4DF5-9C3A-E808C8DA91EB}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4F6AE-A646-40E8-9C56-4A3E60CF62D2}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23FB46-318E-43F0-ACF4-BEC53F2839FE}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB7454-9F5C-4888-94E5-A84F14D1FC17}">
   <dimension ref="A1:D15"/>

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D764839-14E3-4071-B65A-76C1615E220D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BA835-84AC-4391-A350-86DCAD778C08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId14"/>
     <sheet name="Finland" sheetId="26" r:id="rId15"/>
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
+    <sheet name="Norway" sheetId="28" r:id="rId17"/>
+    <sheet name="Poland" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -192,6 +194,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3087</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3121/T3119/T3122</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23FB46-318E-43F0-ACF4-BEC53F2839FE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1539,6 +1553,260 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8064BFE0-8F2B-4D5B-AB1F-EB24F16728C9}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68FAE93-7713-4135-BA36-7738292F102A}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BA835-84AC-4391-A350-86DCAD778C08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BAAF36-6389-4928-AC9D-FCBE6ABEAED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -1262,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69254BB0-2B6B-4DF5-9C3A-E808C8DA91EB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,21 +1353,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1632,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8064BFE0-8F2B-4D5B-AB1F-EB24F16728C9}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2760,7 +2765,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BAAF36-6389-4928-AC9D-FCBE6ABEAED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87231BF8-B51F-4190-B0D6-859BE51FC2A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
     <sheet name="Norway" sheetId="28" r:id="rId17"/>
     <sheet name="Poland" sheetId="29" r:id="rId18"/>
+    <sheet name="UK" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -206,6 +207,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3358/T3355/T3357</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69254BB0-2B6B-4DF5-9C3A-E808C8DA91EB}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1887,6 +1894,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9EF7A4-0B0C-407E-805B-059037A270DD}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB7454-9F5C-4888-94E5-A84F14D1FC17}">
   <dimension ref="A1:D15"/>
